--- a/Anurag PMS DETAILS (10).xlsx
+++ b/Anurag PMS DETAILS (10).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="209">
   <si>
     <t>FIELDS</t>
   </si>
@@ -300,9 +300,6 @@
     <t xml:space="preserve">11)    Kindly check Sheet 2 and fill up the graduation marks semester or year wise over there </t>
   </si>
   <si>
-    <t>PostGraduation</t>
-  </si>
-  <si>
     <t xml:space="preserve">11)    Kindly check Sheet 2 and fill up the post- graduation marks semester or year wise over there </t>
   </si>
   <si>
@@ -649,9 +646,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Hindu</t>
-  </si>
-  <si>
     <t>Marathi, Hindi</t>
   </si>
   <si>
@@ -670,9 +664,6 @@
     <t>Playing Games, Listening To Music(Classical, Peacful)</t>
   </si>
   <si>
-    <t>some like social public society functions</t>
-  </si>
-  <si>
     <t>Software Developer, Java Developer, Web Developer</t>
   </si>
   <si>
@@ -689,6 +680,39 @@
   </si>
   <si>
     <t>https://github.com/AnuragKharche/Educational-Projects.git</t>
+  </si>
+  <si>
+    <t>Design And Fabrication Of Motorised Agriculture Pump/Sprayer With Height And Pitch Adjustment.</t>
+  </si>
+  <si>
+    <t>6 Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation Word, </t>
+  </si>
+  <si>
+    <t>Word For Documentation,</t>
+  </si>
+  <si>
+    <t>Social_Society functions.</t>
+  </si>
+  <si>
+    <t>MS-CIT,</t>
+  </si>
+  <si>
+    <t>Diploma/Post-Matric</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Project Is Made For Eliminating The Heavy Pump Dependencies In Which Farmers Have To Carry  Pump On Their Back. </t>
+  </si>
+  <si>
+    <t>BE, Under Graduate, Degree</t>
+  </si>
+  <si>
+    <t>HINDU</t>
   </si>
 </sst>
 </file>
@@ -980,29 +1004,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1011,6 +1020,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,9 +1320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,55 +1350,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>165</v>
+      <c r="C3" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="27"/>
+        <v>169</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -1384,14 +1408,14 @@
         <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1400,19 +1424,19 @@
       <c r="C8" s="10">
         <v>7448205800</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="10">
         <v>9309906332</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -1422,123 +1446,123 @@
         <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>172</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="32"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10">
         <v>400021</v>
       </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="10">
         <v>22</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="10">
         <v>7448205800</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>2</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="10">
         <v>443101</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="11">
         <v>7267</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="10">
         <v>7448205800</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
@@ -1560,18 +1584,18 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,9 +1630,9 @@
         <v>31</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1616,7 +1640,7 @@
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="27"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
@@ -1626,9 +1650,9 @@
         <v>33</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1636,7 +1660,7 @@
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="27"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
@@ -1648,7 +1672,7 @@
       <c r="C32" s="10">
         <v>416</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1662,7 +1686,7 @@
       <c r="C33" s="10">
         <v>500</v>
       </c>
-      <c r="D33" s="27"/>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
@@ -1686,7 +1710,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>41</v>
@@ -1694,10 +1718,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="16" t="s">
         <v>43</v>
       </c>
@@ -1710,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="10"/>
     </row>
@@ -1722,7 +1746,7 @@
         <v>29</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -1734,9 +1758,9 @@
         <v>31</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1744,7 +1768,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="27"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
@@ -1754,9 +1778,9 @@
         <v>33</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1764,7 +1788,7 @@
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="27"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
@@ -1776,7 +1800,7 @@
       <c r="C43" s="10">
         <v>443</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1790,7 +1814,7 @@
       <c r="C44" s="10">
         <v>650</v>
       </c>
-      <c r="D44" s="27"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
@@ -1814,7 +1838,7 @@
         <v>40</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>41</v>
@@ -1822,11 +1846,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
@@ -1850,7 +1874,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>47</v>
@@ -1878,7 +1902,7 @@
         <v>29</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>51</v>
@@ -1892,7 +1916,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>53</v>
@@ -1906,7 +1930,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D53" s="10"/>
     </row>
@@ -1932,7 +1956,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D55" s="10"/>
     </row>
@@ -1958,7 +1982,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>49</v>
@@ -2050,11 +2074,11 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
@@ -2078,7 +2102,7 @@
         <v>46</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>47</v>
@@ -2092,7 +2116,7 @@
         <v>48</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>49</v>
@@ -2106,7 +2130,7 @@
         <v>29</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>51</v>
@@ -2120,7 +2144,7 @@
         <v>52</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>53</v>
@@ -2134,7 +2158,7 @@
         <v>54</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D73" s="19"/>
     </row>
@@ -2160,7 +2184,7 @@
         <v>57</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D75" s="19"/>
     </row>
@@ -2276,11 +2300,11 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
-      <c r="B87" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
+      <c r="B87" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
@@ -2290,7 +2314,7 @@
         <v>45</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>43</v>
@@ -2304,7 +2328,7 @@
         <v>46</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D89" s="19" t="s">
         <v>47</v>
@@ -2318,7 +2342,7 @@
         <v>48</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>49</v>
@@ -2332,7 +2356,7 @@
         <v>29</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D91" s="19" t="s">
         <v>51</v>
@@ -2346,7 +2370,7 @@
         <v>52</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D92" s="19" t="s">
         <v>53</v>
@@ -2360,7 +2384,7 @@
         <v>54</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D93" s="19"/>
     </row>
@@ -2372,7 +2396,7 @@
         <v>55</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>56</v>
@@ -2386,7 +2410,7 @@
         <v>57</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D95" s="19"/>
     </row>
@@ -2398,7 +2422,7 @@
         <v>58</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>59</v>
@@ -2412,7 +2436,7 @@
         <v>60</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D97" s="19" t="s">
         <v>49</v>
@@ -2422,17 +2446,17 @@
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D98" s="19"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B99" s="18"/>
       <c r="C99" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D99" s="18"/>
     </row>
@@ -2440,7 +2464,7 @@
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D100" s="19"/>
     </row>
@@ -2452,7 +2476,7 @@
         <v>63</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D101" s="13"/>
     </row>
@@ -2464,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D102" s="19"/>
     </row>
@@ -2476,7 +2500,7 @@
         <v>69</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>66</v>
@@ -2490,7 +2514,7 @@
         <v>68</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>70</v>
@@ -2500,20 +2524,20 @@
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D105" s="10"/>
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E106" s="21"/>
     </row>
@@ -2521,185 +2545,183 @@
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D107" s="10"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="C108" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C108" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D108" s="19" t="s">
+    </row>
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>186</v>
+      <c r="C109" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D110" s="10"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B111" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D111" s="10" t="s">
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B113" s="10" t="s">
+      <c r="C113" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
-      <c r="C114" s="19" t="s">
-        <v>186</v>
-      </c>
+      <c r="C114" s="19"/>
       <c r="D114" s="10"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="C115" s="19" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D116" s="10"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B119" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B120" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D120" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
-      <c r="B121" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
+      <c r="B121" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
@@ -2709,86 +2731,86 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B127" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E128" s="21"/>
     </row>
@@ -2801,157 +2823,157 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D131" s="10"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D132" s="10"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D133" s="10"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D134" s="26" t="s">
-        <v>116</v>
+        <v>188</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D135" s="26"/>
+        <v>188</v>
+      </c>
+      <c r="D135" s="24"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B136" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E140" s="21"/>
       <c r="F140" s="21"/>
     </row>
     <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E141" s="21"/>
       <c r="F141" s="21"/>
@@ -2961,10 +2983,10 @@
         <v>62</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D142" s="10"/>
     </row>
@@ -2973,13 +2995,13 @@
         <v>64</v>
       </c>
       <c r="B143" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
@@ -2988,18 +3010,21 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B144" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="D8:D9"/>
@@ -3013,16 +3038,13 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
@@ -3057,21 +3079,21 @@
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
@@ -3081,86 +3103,86 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="E4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>140</v>
+      <c r="A5" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="J5" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="6">
         <v>692</v>
@@ -3175,83 +3197,83 @@
         <v>900</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -3261,61 +3283,61 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="E15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>140</v>
+      <c r="A16" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="6">
         <v>644</v>
@@ -3329,18 +3351,18 @@
       <c r="F17" s="6">
         <v>800</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="6">
         <v>592</v>
@@ -3355,20 +3377,20 @@
         <v>700</v>
       </c>
       <c r="G18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C19" s="6">
         <v>457</v>
@@ -3382,56 +3404,56 @@
       <c r="F19" s="6">
         <v>650</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J19" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -3441,174 +3463,174 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="E26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>140</v>
+      <c r="A27" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J28" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="5" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="J30" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="5" t="s">
+      <c r="C31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="34"/>
+      <c r="I31" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="H27:H31"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H5:H9"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="H27:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
